--- a/team_specific_matrix/South Carolina_A.xlsx
+++ b/team_specific_matrix/South Carolina_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1847575057736721</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.5542725173210161</v>
+        <v>0.55</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01847575057736721</v>
+        <v>0.02142857142857143</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1316397228637413</v>
+        <v>0.1321428571428571</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1108545034642032</v>
+        <v>0.1089285714285714</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02928870292887029</v>
+        <v>0.0220820189274448</v>
       </c>
       <c r="C3">
-        <v>0.01673640167364017</v>
+        <v>0.01261829652996845</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03765690376569038</v>
+        <v>0.05362776025236593</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.698744769874477</v>
+        <v>0.7192429022082019</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2175732217573222</v>
+        <v>0.1924290220820189</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08695652173913043</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7608695652173914</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1521739130434783</v>
+        <v>0.1694915254237288</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05792682926829269</v>
+        <v>0.05808080808080808</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.002525252525252525</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09146341463414634</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2774390243902439</v>
+        <v>0.2853535353535354</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.009146341463414634</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1951219512195122</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="R6">
-        <v>0.06707317073170732</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="S6">
-        <v>0.3018292682926829</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1184668989547038</v>
+        <v>0.1165311653116531</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01393728222996516</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05226480836236934</v>
+        <v>0.04607046070460705</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1602787456445993</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03484320557491289</v>
+        <v>0.02710027100271003</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1672473867595819</v>
+        <v>0.1680216802168022</v>
       </c>
       <c r="R7">
-        <v>0.09407665505226481</v>
+        <v>0.08401084010840108</v>
       </c>
       <c r="S7">
-        <v>0.3588850174216028</v>
+        <v>0.3875338753387534</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1176470588235294</v>
+        <v>0.12</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02016806722689076</v>
+        <v>0.01655172413793103</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06050420168067227</v>
+        <v>0.05931034482758621</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1361344537815126</v>
+        <v>0.1351724137931034</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02016806722689076</v>
+        <v>0.02206896551724138</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1563025210084034</v>
+        <v>0.1572413793103448</v>
       </c>
       <c r="R8">
-        <v>0.08067226890756303</v>
+        <v>0.08413793103448276</v>
       </c>
       <c r="S8">
-        <v>0.4084033613445378</v>
+        <v>0.4055172413793103</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1115537848605578</v>
+        <v>0.1357615894039735</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.003311258278145695</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05577689243027888</v>
+        <v>0.05298013245033113</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1394422310756972</v>
+        <v>0.152317880794702</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00796812749003984</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1912350597609562</v>
+        <v>0.1754966887417219</v>
       </c>
       <c r="R9">
-        <v>0.099601593625498</v>
+        <v>0.08940397350993377</v>
       </c>
       <c r="S9">
-        <v>0.3944223107569721</v>
+        <v>0.3841059602649007</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1037204058624577</v>
+        <v>0.1067615658362989</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01916572717023675</v>
+        <v>0.01912811387900356</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0665163472378805</v>
+        <v>0.06272241992882563</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1476888387824126</v>
+        <v>0.1534697508896797</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02423900789177001</v>
+        <v>0.02935943060498221</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2046223224351748</v>
+        <v>0.202846975088968</v>
       </c>
       <c r="R10">
-        <v>0.08286358511837655</v>
+        <v>0.08096085409252669</v>
       </c>
       <c r="S10">
-        <v>0.3511837655016911</v>
+        <v>0.3447508896797153</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1725663716814159</v>
+        <v>0.1626297577854671</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0752212389380531</v>
+        <v>0.08304498269896193</v>
       </c>
       <c r="K11">
-        <v>0.2123893805309734</v>
+        <v>0.2076124567474048</v>
       </c>
       <c r="L11">
-        <v>0.5287610619469026</v>
+        <v>0.5380622837370242</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01106194690265487</v>
+        <v>0.008650519031141869</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.704</v>
+        <v>0.7292307692307692</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.224</v>
+        <v>0.2030769230769231</v>
       </c>
       <c r="K12">
-        <v>0.008</v>
+        <v>0.009230769230769232</v>
       </c>
       <c r="L12">
-        <v>0.028</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.036</v>
+        <v>0.02769230769230769</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.02</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="G13">
-        <v>0.8</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.16</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01234567901234568</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="I15">
-        <v>0.06790123456790123</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="J15">
-        <v>0.3395061728395062</v>
+        <v>0.3383838383838384</v>
       </c>
       <c r="K15">
-        <v>0.09567901234567901</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01234567901234568</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07716049382716049</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.228395061728395</v>
+        <v>0.2601010101010101</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01612903225806452</v>
+        <v>0.02140672782874618</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1693548387096774</v>
+        <v>0.1712538226299694</v>
       </c>
       <c r="I16">
-        <v>0.06048387096774194</v>
+        <v>0.06116207951070336</v>
       </c>
       <c r="J16">
-        <v>0.4879032258064516</v>
+        <v>0.4587155963302753</v>
       </c>
       <c r="K16">
-        <v>0.08064516129032258</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02419354838709677</v>
+        <v>0.02140672782874618</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04838709677419355</v>
+        <v>0.04281345565749235</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1129032258064516</v>
+        <v>0.1131498470948012</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02333333333333333</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1666666666666667</v>
+        <v>0.1555851063829787</v>
       </c>
       <c r="I17">
-        <v>0.08500000000000001</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="J17">
-        <v>0.405</v>
+        <v>0.4148936170212766</v>
       </c>
       <c r="K17">
-        <v>0.1083333333333333</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02</v>
+        <v>0.0199468085106383</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06333333333333334</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1283333333333333</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01901140684410646</v>
+        <v>0.02476780185758514</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1977186311787072</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="I18">
-        <v>0.09125475285171103</v>
+        <v>0.09907120743034056</v>
       </c>
       <c r="J18">
-        <v>0.4182509505703422</v>
+        <v>0.4334365325077399</v>
       </c>
       <c r="K18">
-        <v>0.09505703422053231</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01140684410646388</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04562737642585551</v>
+        <v>0.04334365325077399</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1216730038022814</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0307599517490953</v>
+        <v>0.03111327175498298</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2147165259348613</v>
+        <v>0.2134175984443364</v>
       </c>
       <c r="I19">
-        <v>0.08262967430639324</v>
+        <v>0.07632474477394263</v>
       </c>
       <c r="J19">
-        <v>0.350422195416164</v>
+        <v>0.3534273213417599</v>
       </c>
       <c r="K19">
-        <v>0.1194209891435464</v>
+        <v>0.1239669421487603</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01507840772014475</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="N19">
-        <v>0.0006031363088057901</v>
+        <v>0.0009722897423432182</v>
       </c>
       <c r="O19">
-        <v>0.07840772014475271</v>
+        <v>0.07681088964511425</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1079613992762364</v>
+        <v>0.1079241614000972</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Carolina_A.xlsx
+++ b/team_specific_matrix/South Carolina_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1875</v>
+        <v>0.1790322580645161</v>
       </c>
       <c r="C2">
-        <v>0.55</v>
+        <v>0.5596774193548387</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02142857142857143</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1321428571428571</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1089285714285714</v>
+        <v>0.1129032258064516</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0220820189274448</v>
+        <v>0.01966292134831461</v>
       </c>
       <c r="C3">
-        <v>0.01261829652996845</v>
+        <v>0.01404494382022472</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05362776025236593</v>
+        <v>0.05898876404494382</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7192429022082019</v>
+        <v>0.7219101123595506</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1924290220820189</v>
+        <v>0.1853932584269663</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1016949152542373</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7288135593220338</v>
+        <v>0.6811594202898551</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1694915254237288</v>
+        <v>0.2318840579710145</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05808080808080808</v>
+        <v>0.05429864253393665</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002525252525252525</v>
+        <v>0.002262443438914027</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08333333333333333</v>
+        <v>0.08597285067873303</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2853535353535354</v>
+        <v>0.2760180995475113</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01515151515151515</v>
+        <v>0.01357466063348416</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1893939393939394</v>
+        <v>0.1900452488687783</v>
       </c>
       <c r="R6">
-        <v>0.06060606060606061</v>
+        <v>0.06561085972850679</v>
       </c>
       <c r="S6">
-        <v>0.3055555555555556</v>
+        <v>0.3122171945701357</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1165311653116531</v>
+        <v>0.1137440758293839</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01626016260162602</v>
+        <v>0.01895734597156398</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04607046070460705</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1544715447154472</v>
+        <v>0.1587677725118483</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02710027100271003</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1680216802168022</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="R7">
-        <v>0.08401084010840108</v>
+        <v>0.08767772511848342</v>
       </c>
       <c r="S7">
-        <v>0.3875338753387534</v>
+        <v>0.3886255924170616</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01655172413793103</v>
+        <v>0.01604938271604938</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05931034482758621</v>
+        <v>0.05802469135802469</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1351724137931034</v>
+        <v>0.1395061728395062</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02206896551724138</v>
+        <v>0.02098765432098765</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1572413793103448</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="R8">
-        <v>0.08413793103448276</v>
+        <v>0.08518518518518518</v>
       </c>
       <c r="S8">
-        <v>0.4055172413793103</v>
+        <v>0.408641975308642</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1357615894039735</v>
+        <v>0.1337386018237082</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.003311258278145695</v>
+        <v>0.00911854103343465</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05298013245033113</v>
+        <v>0.05167173252279635</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.152317880794702</v>
+        <v>0.1458966565349544</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006622516556291391</v>
+        <v>0.00911854103343465</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1754966887417219</v>
+        <v>0.1793313069908815</v>
       </c>
       <c r="R9">
-        <v>0.08940397350993377</v>
+        <v>0.09422492401215805</v>
       </c>
       <c r="S9">
-        <v>0.3841059602649007</v>
+        <v>0.3768996960486322</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1067615658362989</v>
+        <v>0.1080974842767296</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01912811387900356</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0003930817610062893</v>
       </c>
       <c r="F10">
-        <v>0.06272241992882563</v>
+        <v>0.06525157232704402</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1534697508896797</v>
+        <v>0.1525157232704402</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02935943060498221</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.202846975088968</v>
+        <v>0.2028301886792453</v>
       </c>
       <c r="R10">
-        <v>0.08096085409252669</v>
+        <v>0.07861635220125786</v>
       </c>
       <c r="S10">
-        <v>0.3447508896797153</v>
+        <v>0.345125786163522</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1626297577854671</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08304498269896193</v>
+        <v>0.08435582822085889</v>
       </c>
       <c r="K11">
-        <v>0.2076124567474048</v>
+        <v>0.2070552147239264</v>
       </c>
       <c r="L11">
-        <v>0.5380622837370242</v>
+        <v>0.5383435582822086</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008650519031141869</v>
+        <v>0.01073619631901841</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7292307692307692</v>
+        <v>0.7438692098092643</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2030769230769231</v>
+        <v>0.1907356948228883</v>
       </c>
       <c r="K12">
-        <v>0.009230769230769232</v>
+        <v>0.0108991825613079</v>
       </c>
       <c r="L12">
-        <v>0.03076923076923077</v>
+        <v>0.02997275204359673</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02769230769230769</v>
+        <v>0.02452316076294278</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.01587301587301587</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="G13">
-        <v>0.7301587301587301</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2063492063492063</v>
+        <v>0.2054794520547945</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.0410958904109589</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01515151515151515</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1616161616161616</v>
+        <v>0.1704035874439462</v>
       </c>
       <c r="I15">
-        <v>0.06565656565656566</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="J15">
-        <v>0.3383838383838384</v>
+        <v>0.352017937219731</v>
       </c>
       <c r="K15">
-        <v>0.08333333333333333</v>
+        <v>0.08071748878923767</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0101010101010101</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06565656565656566</v>
+        <v>0.06278026905829596</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2601010101010101</v>
+        <v>0.2533632286995516</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02140672782874618</v>
+        <v>0.01912568306010929</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1712538226299694</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="I16">
-        <v>0.06116207951070336</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="J16">
-        <v>0.4587155963302753</v>
+        <v>0.4562841530054645</v>
       </c>
       <c r="K16">
-        <v>0.1100917431192661</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02140672782874618</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04281345565749235</v>
+        <v>0.04098360655737705</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1131498470948012</v>
+        <v>0.1229508196721311</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02127659574468085</v>
+        <v>0.02016607354685647</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1555851063829787</v>
+        <v>0.1553973902728351</v>
       </c>
       <c r="I17">
-        <v>0.0851063829787234</v>
+        <v>0.08659549228944247</v>
       </c>
       <c r="J17">
-        <v>0.4148936170212766</v>
+        <v>0.4163701067615658</v>
       </c>
       <c r="K17">
-        <v>0.1170212765957447</v>
+        <v>0.1138790035587189</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0199468085106383</v>
+        <v>0.01897983392645314</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05851063829787234</v>
+        <v>0.05931198102016608</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1276595744680851</v>
+        <v>0.129300118623962</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02476780185758514</v>
+        <v>0.02472527472527472</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1764705882352941</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I18">
-        <v>0.09907120743034056</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J18">
-        <v>0.4334365325077399</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K18">
-        <v>0.1052631578947368</v>
+        <v>0.1181318681318681</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01238390092879257</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04334365325077399</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1052631578947368</v>
+        <v>0.1043956043956044</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03111327175498298</v>
+        <v>0.0279089738085015</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2134175984443364</v>
+        <v>0.2091026191498497</v>
       </c>
       <c r="I19">
-        <v>0.07632474477394263</v>
+        <v>0.0734220695577501</v>
       </c>
       <c r="J19">
-        <v>0.3534273213417599</v>
+        <v>0.3593817088879347</v>
       </c>
       <c r="K19">
-        <v>0.1239669421487603</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0160427807486631</v>
+        <v>0.0176041219407471</v>
       </c>
       <c r="N19">
-        <v>0.0009722897423432182</v>
+        <v>0.0008587376556462001</v>
       </c>
       <c r="O19">
-        <v>0.07681088964511425</v>
+        <v>0.0790038643194504</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1079241614000972</v>
+        <v>0.1086303134392443</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/South Carolina_A.xlsx
+++ b/team_specific_matrix/South Carolina_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1790322580645161</v>
+        <v>0.1909774436090226</v>
       </c>
       <c r="C2">
-        <v>0.5596774193548387</v>
+        <v>0.5398496240601504</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01935483870967742</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1290322580645161</v>
+        <v>0.1368421052631579</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1129032258064516</v>
+        <v>0.1112781954887218</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01966292134831461</v>
+        <v>0.01902173913043478</v>
       </c>
       <c r="C3">
-        <v>0.01404494382022472</v>
+        <v>0.01358695652173913</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05898876404494382</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7219101123595506</v>
+        <v>0.7228260869565217</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1853932584269663</v>
+        <v>0.1847826086956522</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08695652173913043</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6811594202898551</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2318840579710145</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05429864253393665</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002262443438914027</v>
+        <v>0.002114164904862579</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.08597285067873303</v>
+        <v>0.0824524312896406</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2760180995475113</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01357466063348416</v>
+        <v>0.01268498942917548</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1900452488687783</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="R6">
-        <v>0.06561085972850679</v>
+        <v>0.06342494714587738</v>
       </c>
       <c r="S6">
-        <v>0.3122171945701357</v>
+        <v>0.3255813953488372</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1137440758293839</v>
+        <v>0.1094091903719912</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01895734597156398</v>
+        <v>0.02188183807439825</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04265402843601896</v>
+        <v>0.04595185995623632</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1587677725118483</v>
+        <v>0.161925601750547</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02369668246445497</v>
+        <v>0.02188183807439825</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1658767772511848</v>
+        <v>0.1597374179431072</v>
       </c>
       <c r="R7">
-        <v>0.08767772511848342</v>
+        <v>0.08971553610503283</v>
       </c>
       <c r="S7">
-        <v>0.3886255924170616</v>
+        <v>0.3894967177242888</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1172839506172839</v>
+        <v>0.1148105625717566</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01604938271604938</v>
+        <v>0.01607347876004592</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05802469135802469</v>
+        <v>0.05855338691159587</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1395061728395062</v>
+        <v>0.1458094144661309</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02098765432098765</v>
+        <v>0.02066590126291619</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.154320987654321</v>
+        <v>0.1526980482204363</v>
       </c>
       <c r="R8">
-        <v>0.08518518518518518</v>
+        <v>0.08495981630309989</v>
       </c>
       <c r="S8">
-        <v>0.408641975308642</v>
+        <v>0.4064293915040184</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1337386018237082</v>
+        <v>0.1288515406162465</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00911854103343465</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05167173252279635</v>
+        <v>0.05042016806722689</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1458966565349544</v>
+        <v>0.1512605042016807</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.00911854103343465</v>
+        <v>0.01120448179271709</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1793313069908815</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="R9">
-        <v>0.09422492401215805</v>
+        <v>0.09243697478991597</v>
       </c>
       <c r="S9">
-        <v>0.3768996960486322</v>
+        <v>0.3809523809523809</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1080974842767296</v>
+        <v>0.1061432206470374</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01886792452830189</v>
+        <v>0.01853871319520175</v>
       </c>
       <c r="E10">
-        <v>0.0003930817610062893</v>
+        <v>0.0003635041802980734</v>
       </c>
       <c r="F10">
-        <v>0.06525157232704402</v>
+        <v>0.06615776081424936</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1525157232704402</v>
+        <v>0.1508542348237005</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02830188679245283</v>
+        <v>0.02726281352235551</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2028301886792453</v>
+        <v>0.2010178117048346</v>
       </c>
       <c r="R10">
-        <v>0.07861635220125786</v>
+        <v>0.07851690294438386</v>
       </c>
       <c r="S10">
-        <v>0.345125786163522</v>
+        <v>0.3511450381679389</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1595092024539877</v>
+        <v>0.1534090909090909</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08435582822085889</v>
+        <v>0.08664772727272728</v>
       </c>
       <c r="K11">
-        <v>0.2070552147239264</v>
+        <v>0.2017045454545454</v>
       </c>
       <c r="L11">
-        <v>0.5383435582822086</v>
+        <v>0.5482954545454546</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01073619631901841</v>
+        <v>0.009943181818181818</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7438692098092643</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1907356948228883</v>
+        <v>0.1925925925925926</v>
       </c>
       <c r="K12">
-        <v>0.0108991825613079</v>
+        <v>0.009876543209876543</v>
       </c>
       <c r="L12">
-        <v>0.02997275204359673</v>
+        <v>0.03209876543209877</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02452316076294278</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.0136986301369863</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G13">
-        <v>0.7397260273972602</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2054794520547945</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0410958904109589</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01345291479820628</v>
+        <v>0.01260504201680672</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1704035874439462</v>
+        <v>0.1701680672268908</v>
       </c>
       <c r="I15">
-        <v>0.05829596412556054</v>
+        <v>0.06512605042016807</v>
       </c>
       <c r="J15">
-        <v>0.352017937219731</v>
+        <v>0.3487394957983193</v>
       </c>
       <c r="K15">
-        <v>0.08071748878923767</v>
+        <v>0.07773109243697479</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008968609865470852</v>
+        <v>0.01050420168067227</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.002100840336134454</v>
       </c>
       <c r="O15">
-        <v>0.06278026905829596</v>
+        <v>0.06092436974789916</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2533632286995516</v>
+        <v>0.2521008403361344</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01912568306010929</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1693989071038251</v>
+        <v>0.1641025641025641</v>
       </c>
       <c r="I16">
-        <v>0.06010928961748634</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="J16">
-        <v>0.4562841530054645</v>
+        <v>0.4564102564102564</v>
       </c>
       <c r="K16">
-        <v>0.1092896174863388</v>
+        <v>0.1102564102564103</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02185792349726776</v>
+        <v>0.02307692307692308</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04098360655737705</v>
+        <v>0.04871794871794872</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1229508196721311</v>
+        <v>0.1230769230769231</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02016607354685647</v>
+        <v>0.02006688963210702</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1553973902728351</v>
+        <v>0.1560758082497213</v>
       </c>
       <c r="I17">
-        <v>0.08659549228944247</v>
+        <v>0.0903010033444816</v>
       </c>
       <c r="J17">
-        <v>0.4163701067615658</v>
+        <v>0.4169453734671126</v>
       </c>
       <c r="K17">
-        <v>0.1138790035587189</v>
+        <v>0.1137123745819398</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01897983392645314</v>
+        <v>0.01783723522853958</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05931198102016608</v>
+        <v>0.05797101449275362</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.129300118623962</v>
+        <v>0.1270903010033445</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02472527472527472</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1785714285714286</v>
+        <v>0.1806615776081425</v>
       </c>
       <c r="I18">
-        <v>0.09615384615384616</v>
+        <v>0.09669211195928754</v>
       </c>
       <c r="J18">
-        <v>0.4230769230769231</v>
+        <v>0.4223918575063613</v>
       </c>
       <c r="K18">
-        <v>0.1181318681318681</v>
+        <v>0.1119592875318066</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01098901098901099</v>
+        <v>0.01017811704834606</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04395604395604396</v>
+        <v>0.04834605597964377</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1043956043956044</v>
+        <v>0.1068702290076336</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0279089738085015</v>
+        <v>0.02649268485567418</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2091026191498497</v>
+        <v>0.2079873467773824</v>
       </c>
       <c r="I19">
-        <v>0.0734220695577501</v>
+        <v>0.07236061684460261</v>
       </c>
       <c r="J19">
-        <v>0.3593817088879347</v>
+        <v>0.3621984974298141</v>
       </c>
       <c r="K19">
-        <v>0.1240875912408759</v>
+        <v>0.1277184657967576</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0176041219407471</v>
+        <v>0.0166073546856465</v>
       </c>
       <c r="N19">
-        <v>0.0008587376556462001</v>
+        <v>0.0007908264136022143</v>
       </c>
       <c r="O19">
-        <v>0.0790038643194504</v>
+        <v>0.07671016211941478</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1086303134392443</v>
+        <v>0.1091340450771056</v>
       </c>
     </row>
   </sheetData>
